--- a/biology/Zoologie/Gobio_acutipinnatus/Gobio_acutipinnatus.xlsx
+++ b/biology/Zoologie/Gobio_acutipinnatus/Gobio_acutipinnatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobio acutipinnatus est une espèce de poissons de la famille des Cyprinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Russie, en Mongolie, en Chine et au Kazakhstan.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Gobio acutipinnatus est de 124 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Gobio acutipinnatus est de 124 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin acuti, « pointu, effilé », et pinnatus, « nageoire », lui a été donné en référence à la forme de ses nageoires comparativement à celles de Gobio gobio[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin acuti, « pointu, effilé », et pinnatus, « nageoire », lui a été donné en référence à la forme de ses nageoires comparativement à celles de Gobio gobio. 
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Men'shikov, 1939 : « On the ichthyofauna of Lake Marka-Kul ». Ucenye zapiski / Permskij Ordena Trudovogo Krasnogo Znameni Gosudarstvennyj Universitet Imeni A. M. Gor'kogo, Ministerstvo Vyssego i Srednego Special'nogo Obrazovanija RSFSR. vol. 3, n. 2, p. 119-142.</t>
         </is>
